--- a/GATEWAY/A1#111CARESTUDIOXX/ISED S.p.A./CARESTUDIO/1/report-checklist.xlsx
+++ b/GATEWAY/A1#111CARESTUDIOXX/ISED S.p.A./CARESTUDIO/1/report-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ised/Dev/Progetti/FSE2.0/it-fse-accreditamento/GATEWAY/A1#111CARESTUDIOXX/ISED S.p.A./CARESTUDIO/1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFACEF7-3F1E-F44B-B7B4-A6F192AE2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363A39CA-B497-BD44-8736-B0FF195CA92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="880" windowWidth="35160" windowHeight="22500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="880" windowWidth="34960" windowHeight="22500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -784,9 +784,6 @@
     <t>Il nostro sw non permette di generare un JWT senza campi obbligatori e nel caso in cui dovesse accadere l'invio validazione non avverrebbe quindi questo test non è simulabile</t>
   </si>
   <si>
-    <t>Le informazioni che compongono il jwt sono recuperate automaticamente e in caso di informazioni errate non avviene l'invio per la validazione</t>
-  </si>
-  <si>
     <t>il nostro gestionale non gestisce le sezioni Piani di Cura, Reti di patologia e annotazioni</t>
   </si>
   <si>
@@ -854,6 +851,9 @@
   </si>
   <si>
     <t>2024-03-15T18:45:30Z</t>
+  </si>
+  <si>
+    <t>Il software non permette di inviare campi con valori non ammessi</t>
   </si>
 </sst>
 </file>
@@ -1834,10 +1834,10 @@
   <dimension ref="A1:T651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="G10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2129,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="34" customFormat="1" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="34" customFormat="1" ht="295" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>38</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>159</v>
       </c>
       <c r="K11" s="24" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
@@ -2196,11 +2196,11 @@
         <v>60</v>
       </c>
       <c r="N12" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O12" s="24"/>
       <c r="P12" s="24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="24"/>
       <c r="R12" s="25" t="s">
@@ -2235,7 +2235,7 @@
         <v>159</v>
       </c>
       <c r="K13" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L13" s="24"/>
       <c r="M13" s="24"/>
@@ -2273,7 +2273,7 @@
         <v>159</v>
       </c>
       <c r="K14" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14" s="24"/>
       <c r="M14" s="24"/>
@@ -2311,7 +2311,7 @@
         <v>159</v>
       </c>
       <c r="K15" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" s="24"/>
       <c r="M15" s="24"/>
@@ -2349,7 +2349,7 @@
         <v>159</v>
       </c>
       <c r="K16" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
@@ -2387,7 +2387,7 @@
         <v>159</v>
       </c>
       <c r="K17" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L17" s="24"/>
       <c r="M17" s="24"/>
@@ -2425,7 +2425,7 @@
         <v>159</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L18" s="24"/>
       <c r="M18" s="24"/>
@@ -2463,7 +2463,7 @@
         <v>159</v>
       </c>
       <c r="K19" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L19" s="24"/>
       <c r="M19" s="24"/>
@@ -2501,7 +2501,7 @@
         <v>159</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L20" s="24"/>
       <c r="M20" s="24"/>
@@ -2539,7 +2539,7 @@
         <v>159</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L21" s="24"/>
       <c r="M21" s="24"/>
@@ -2577,7 +2577,7 @@
         <v>159</v>
       </c>
       <c r="K22" s="24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L22" s="24"/>
       <c r="M22" s="24"/>
@@ -2615,7 +2615,7 @@
         <v>159</v>
       </c>
       <c r="K23" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L23" s="24"/>
       <c r="M23" s="24"/>
@@ -2653,7 +2653,7 @@
         <v>159</v>
       </c>
       <c r="K24" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
@@ -2691,7 +2691,7 @@
         <v>159</v>
       </c>
       <c r="K25" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
@@ -2729,7 +2729,7 @@
         <v>159</v>
       </c>
       <c r="K26" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
@@ -2767,7 +2767,7 @@
         <v>159</v>
       </c>
       <c r="K27" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
@@ -2805,7 +2805,7 @@
         <v>159</v>
       </c>
       <c r="K28" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
@@ -2843,7 +2843,7 @@
         <v>159</v>
       </c>
       <c r="K29" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
@@ -2881,7 +2881,7 @@
         <v>159</v>
       </c>
       <c r="K30" s="24" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
@@ -2919,7 +2919,7 @@
         <v>159</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
@@ -2957,7 +2957,7 @@
         <v>159</v>
       </c>
       <c r="K32" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
@@ -2995,7 +2995,7 @@
         <v>159</v>
       </c>
       <c r="K33" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
@@ -3029,13 +3029,13 @@
         <v>45366</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>60</v>
